--- a/data/trans_dic/P17_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17_R-Estudios-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.8850104335110784</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.8860000690967447</v>
+        <v>0.8860000690967448</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.7957357120898993</v>
@@ -697,7 +697,7 @@
         <v>0.8580549699367289</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.8471242714937941</v>
+        <v>0.847124271493794</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7010892742363832</v>
+        <v>0.6994383617579943</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7726076311171349</v>
+        <v>0.7736357275690646</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7899027347834421</v>
+        <v>0.79410833461153</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7528900296996272</v>
+        <v>0.7500071914337453</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8266599305568244</v>
+        <v>0.8275855660445472</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8799079888949464</v>
+        <v>0.8790349079133029</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8633037056851635</v>
+        <v>0.8655632491717833</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8656219553481892</v>
+        <v>0.8660594524700227</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7796788024403842</v>
+        <v>0.7788951460397696</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.8430732056530734</v>
+        <v>0.8428191622524958</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8415694016509964</v>
+        <v>0.8409192997731435</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8283403008521817</v>
+        <v>0.8269590621816763</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7556113280035038</v>
+        <v>0.7552213895676665</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8265953576216482</v>
+        <v>0.8257063796501207</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8494777200079954</v>
+        <v>0.8488641421017221</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8216432270601239</v>
+        <v>0.8250864329310111</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8660311476175225</v>
+        <v>0.866918174857163</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9136023753650967</v>
+        <v>0.9131091263344669</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9042885234305831</v>
+        <v>0.9056993568952527</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9023522020487174</v>
+        <v>0.9036268857851358</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8108344051249081</v>
+        <v>0.8129165688816327</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8704437111034689</v>
+        <v>0.8714193771002523</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8753856977738789</v>
+        <v>0.8745779047308578</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.8662135180063524</v>
+        <v>0.8654813921961649</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.7322778057793047</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6564281112140176</v>
+        <v>0.6564281112140177</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7180147339676194</v>
@@ -821,7 +821,7 @@
         <v>0.8017237279216223</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.743407264597404</v>
+        <v>0.7434072645974042</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6519360386594076</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5669519108909735</v>
+        <v>0.5664887637815634</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.664370569338439</v>
+        <v>0.6642069264036968</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7121161195262871</v>
+        <v>0.7129158335888471</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6312879438736622</v>
+        <v>0.6320365302651567</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6950701216830607</v>
+        <v>0.6982030745586345</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.757643196197139</v>
+        <v>0.7563411265924199</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7824856365846466</v>
+        <v>0.784270810241023</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7249397868313744</v>
+        <v>0.7247201562975533</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6354132089846231</v>
+        <v>0.6332449403330241</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7138028374051469</v>
+        <v>0.7148859021284873</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7520176125737545</v>
+        <v>0.7516683143817032</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.6843568747449738</v>
+        <v>0.6842910467397361</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6144869608651049</v>
+        <v>0.6144753095212674</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7068830305498351</v>
+        <v>0.7097775732188114</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7523261716756628</v>
+        <v>0.7521407372186093</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6808543783738252</v>
+        <v>0.6787330369469543</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7398591365431478</v>
+        <v>0.7444033931462812</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7984720277231939</v>
+        <v>0.7984673892184309</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8193899627153591</v>
+        <v>0.820104753326021</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7601046447272896</v>
+        <v>0.7601664844988298</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6692241477498933</v>
+        <v>0.6680578666899524</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.7437151867615815</v>
+        <v>0.7448463130541745</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7794397339579202</v>
+        <v>0.7789496080277606</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.7134442926315121</v>
+        <v>0.7140679886273977</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6660109653079667</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.654465320011915</v>
+        <v>0.6544653200119149</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6929621168274637</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4909967433167921</v>
+        <v>0.487162983562643</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5820507152416915</v>
+        <v>0.5813803942477301</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6205648195721206</v>
+        <v>0.6226515352495179</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6140980875848346</v>
+        <v>0.6130502238763084</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6511542409041403</v>
+        <v>0.6472421327986538</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7210142573908029</v>
+        <v>0.7215211345690232</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6900525809571311</v>
+        <v>0.6901674754191597</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.6788535570650989</v>
+        <v>0.6786380967948568</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5779860653056147</v>
+        <v>0.5775873127474416</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6653935444596905</v>
+        <v>0.6655914456750842</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.66844668463801</v>
+        <v>0.6701012840969872</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.6592731362319657</v>
+        <v>0.6545929311378774</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5810574811357849</v>
+        <v>0.5813093154361618</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6727406195552345</v>
+        <v>0.672705750818744</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7066985992580145</v>
+        <v>0.7080307010331832</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6953439745484195</v>
+        <v>0.6888402236592638</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7346577663404499</v>
+        <v>0.7358434698690679</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8079212583067077</v>
+        <v>0.8042300384845193</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7719183092983705</v>
+        <v>0.7700898737141524</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7403997417199857</v>
+        <v>0.739643645551164</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6365534350939901</v>
+        <v>0.6415522407380315</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7267226153320309</v>
+        <v>0.7251678372826407</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7243813020248595</v>
+        <v>0.7270873710191962</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7086569266432171</v>
+        <v>0.7055729281797251</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.7786466838270129</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7244485991370794</v>
+        <v>0.7244485991370795</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6061439617617165</v>
+        <v>0.6071045534179215</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6949712597209968</v>
+        <v>0.6946070706971637</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7261051037446286</v>
+        <v>0.726493621081109</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6578992624975173</v>
+        <v>0.6596143078778599</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.7512426475852377</v>
+        <v>0.7499558508446812</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8079645344040547</v>
+        <v>0.80659910721031</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8007586826113061</v>
+        <v>0.8002867172503157</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7543120521546872</v>
+        <v>0.7551619200495188</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.6838903940609194</v>
+        <v>0.6838645647773079</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7563466927257654</v>
+        <v>0.7570366944079078</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7685578205697853</v>
+        <v>0.7688406859632668</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7140865082584564</v>
+        <v>0.7131160824904224</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6412234208557039</v>
+        <v>0.642791807674418</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7263045886888826</v>
+        <v>0.7262189339702411</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7574158570820213</v>
+        <v>0.7583742030505789</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6947810741217723</v>
+        <v>0.6959827791359747</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7792960309406581</v>
+        <v>0.7791370829611663</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8348168248101903</v>
+        <v>0.834234620111061</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8275925433929276</v>
+        <v>0.8271827785117681</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.780860797884766</v>
+        <v>0.7793057849308945</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.7069237393564309</v>
+        <v>0.7068052357569956</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7769500472232566</v>
+        <v>0.7779457564114873</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7889785074603592</v>
+        <v>0.7893647724321133</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7350839949078388</v>
+        <v>0.7356611341294554</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>720881</v>
+        <v>719184</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>752198</v>
+        <v>753199</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>594117</v>
+        <v>597280</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>432626</v>
+        <v>430969</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1086380</v>
+        <v>1087596</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1176206</v>
+        <v>1175039</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>857097</v>
+        <v>859340</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>709768</v>
+        <v>710127</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1826327</v>
+        <v>1824492</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1947771</v>
+        <v>1947184</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1468496</v>
+        <v>1467361</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1155180</v>
+        <v>1153254</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>776942</v>
+        <v>776541</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>804759</v>
+        <v>803894</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>638925</v>
+        <v>638464</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>472133</v>
+        <v>474111</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1138121</v>
+        <v>1139287</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1221247</v>
+        <v>1220588</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>897787</v>
+        <v>899187</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>739885</v>
+        <v>740931</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1899307</v>
+        <v>1904184</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>2011005</v>
+        <v>2013259</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1527503</v>
+        <v>1526094</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1207997</v>
+        <v>1206976</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>958542</v>
+        <v>957759</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1304104</v>
+        <v>1303782</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1475433</v>
+        <v>1477090</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1404731</v>
+        <v>1406397</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1102866</v>
+        <v>1107837</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1331787</v>
+        <v>1329499</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1548568</v>
+        <v>1552101</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1570117</v>
+        <v>1569641</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2082498</v>
+        <v>2075392</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2655860</v>
+        <v>2659890</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3046375</v>
+        <v>3044960</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3005038</v>
+        <v>3004749</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1038909</v>
+        <v>1038890</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1387552</v>
+        <v>1393234</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1558744</v>
+        <v>1558360</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1515026</v>
+        <v>1510305</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1173933</v>
+        <v>1181143</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1403557</v>
+        <v>1403548</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1621603</v>
+        <v>1623018</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1646279</v>
+        <v>1646413</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>2193310</v>
+        <v>2189488</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>2767155</v>
+        <v>2771364</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>3157460</v>
+        <v>3155475</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>3132762</v>
+        <v>3135501</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>269168</v>
+        <v>267066</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>280072</v>
+        <v>279749</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>338055</v>
+        <v>339192</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>435547</v>
+        <v>434803</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>310218</v>
+        <v>308354</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>329149</v>
+        <v>329381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>378242</v>
+        <v>378305</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>497129</v>
+        <v>496971</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>592216</v>
+        <v>591807</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>623934</v>
+        <v>624119</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>730538</v>
+        <v>732346</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>950377</v>
+        <v>943630</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>318540</v>
+        <v>318678</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>323710</v>
+        <v>323693</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>384977</v>
+        <v>385703</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>493170</v>
+        <v>488557</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>350000</v>
+        <v>350565</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>368823</v>
+        <v>367138</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>423115</v>
+        <v>422113</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>542200</v>
+        <v>541646</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>652225</v>
+        <v>657347</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>681441</v>
+        <v>679983</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>791668</v>
+        <v>794626</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1021567</v>
+        <v>1017121</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1980352</v>
+        <v>1983491</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2375190</v>
+        <v>2373945</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2446096</v>
+        <v>2447405</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2308601</v>
+        <v>2314619</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2537164</v>
+        <v>2532818</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2869122</v>
+        <v>2864274</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2818657</v>
+        <v>2816996</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2804620</v>
+        <v>2807780</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>4544056</v>
+        <v>4543884</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>5270777</v>
+        <v>5275585</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>5294421</v>
+        <v>5296370</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5160821</v>
+        <v>5153808</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2094962</v>
+        <v>2100086</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>2482277</v>
+        <v>2481985</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2551576</v>
+        <v>2554804</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2438021</v>
+        <v>2442238</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2631908</v>
+        <v>2631371</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>2964476</v>
+        <v>2962409</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>2913112</v>
+        <v>2911669</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>2903331</v>
+        <v>2897549</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4697099</v>
+        <v>4696312</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>5414356</v>
+        <v>5421295</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>5435095</v>
+        <v>5437756</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>5312573</v>
+        <v>5316744</v>
       </c>
     </row>
     <row r="20">
